--- a/T07/Daten/PropC.xlsx
+++ b/T07/Daten/PropC.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\Desktop\T07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\Documents\GitHub\Fortgeschrittenenpraktikum\T07\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300AD592-2075-4E54-9645-436073444A4C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{4E71592A-8829-4FE2-B4F6-CFAF5B2ABBB9}"/>
   </bookViews>
@@ -1567,15 +1568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354CA1F5-A927-4329-9876-B7CCDEE48E52}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>250</v>
       </c>
@@ -1585,8 +1586,11 @@
       <c r="C1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+40</f>
         <v>290</v>
@@ -1597,10 +1601,13 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A50" si="0">A2+40</f>
+        <f t="shared" ref="A3:A44" si="0">A2+40</f>
         <v>330</v>
       </c>
       <c r="B3">
@@ -1609,8 +1616,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>370</v>
@@ -1621,8 +1631,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>410</v>
@@ -1633,8 +1646,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>450</v>
@@ -1645,8 +1661,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>490</v>
@@ -1657,8 +1676,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>530</v>
@@ -1669,8 +1691,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>570</v>
@@ -1681,8 +1706,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>610</v>
@@ -1693,8 +1721,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>650</v>
@@ -1705,8 +1736,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>690</v>
@@ -1717,8 +1751,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>730</v>
@@ -1729,8 +1766,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>770</v>
@@ -1741,8 +1781,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>810</v>
@@ -1753,8 +1796,11 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>850</v>
@@ -1765,8 +1811,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>890</v>
@@ -1777,8 +1826,11 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>930</v>
@@ -1789,8 +1841,11 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>970</v>
@@ -1801,8 +1856,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1010</v>
@@ -1813,8 +1871,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1050</v>
@@ -1825,8 +1886,11 @@
       <c r="C21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1090</v>
@@ -1837,8 +1901,11 @@
       <c r="C22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1130</v>
@@ -1849,8 +1916,11 @@
       <c r="C23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1170</v>
@@ -1861,8 +1931,11 @@
       <c r="C24">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1210</v>
@@ -1873,8 +1946,11 @@
       <c r="C25">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1250</v>
@@ -1885,8 +1961,11 @@
       <c r="C26">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1290</v>
@@ -1897,8 +1976,11 @@
       <c r="C27">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>1330</v>
@@ -1909,8 +1991,11 @@
       <c r="C28">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>1370</v>
@@ -1921,8 +2006,11 @@
       <c r="C29">
         <v>164</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>1410</v>
@@ -1933,8 +2021,11 @@
       <c r="C30">
         <v>208</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1450</v>
@@ -1945,8 +2036,11 @@
       <c r="C31">
         <v>272</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1490</v>
@@ -1957,8 +2051,11 @@
       <c r="C32">
         <v>320</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1530</v>
@@ -1969,8 +2066,11 @@
       <c r="C33">
         <v>380</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>1570</v>
@@ -1981,8 +2081,11 @@
       <c r="C34">
         <v>712</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>1610</v>
@@ -1993,8 +2096,11 @@
       <c r="C35">
         <v>920</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>1650</v>
@@ -2005,8 +2111,11 @@
       <c r="C36">
         <v>1240</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>1690</v>
@@ -2017,8 +2126,11 @@
       <c r="C37">
         <v>1640</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>1730</v>
@@ -2029,8 +2141,11 @@
       <c r="C38">
         <v>2220</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>1770</v>
@@ -2041,8 +2156,11 @@
       <c r="C39">
         <v>3160</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>1810</v>
@@ -2053,8 +2171,11 @@
       <c r="C40">
         <v>4560</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>1850</v>
@@ -2065,8 +2186,11 @@
       <c r="C41">
         <v>6160</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>1890</v>
@@ -2077,8 +2201,11 @@
       <c r="C42">
         <v>6320</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>1930</v>
@@ -2089,8 +2216,11 @@
       <c r="C43">
         <v>6400</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2101,8 +2231,11 @@
       <c r="C44">
         <v>6400</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2000</v>
       </c>
@@ -2111,6 +2244,9 @@
       </c>
       <c r="C45">
         <v>6400</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
